--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329681.127848268</v>
+        <v>-1332381.019969491</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>251.9814272891586</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2971835647756</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.89682572465613</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.1142234322704</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>43.16438564876923</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>126.4280228389787</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>93.09348756475505</v>
       </c>
       <c r="X7" t="n">
-        <v>93.54428349845803</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.243971142777</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>331.7540002561859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>94.58078206306119</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>171.7338511361012</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="C13" t="n">
-        <v>158.2465685970615</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.46574022124193</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.17988875728673</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>180.9172429496418</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>53.76947475493755</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.006892987834567</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721.780145292713</v>
+        <v>1255.480672315078</v>
       </c>
       <c r="C2" t="n">
-        <v>721.780145292713</v>
+        <v>1255.480672315078</v>
       </c>
       <c r="D2" t="n">
-        <v>363.5144466859625</v>
+        <v>1255.480672315078</v>
       </c>
       <c r="E2" t="n">
-        <v>363.5144466859625</v>
+        <v>869.6924197168341</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4334,16 +4334,16 @@
         <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>1096.123594092266</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.194160649869</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.669266885454</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1972.785486202088</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394154</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>1793.271146240432</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>1440.502490970318</v>
+        <v>1883.473124807632</v>
       </c>
       <c r="X2" t="n">
-        <v>1111.919477268525</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="Y2" t="n">
-        <v>721.780145292713</v>
+        <v>1510.007366546552</v>
       </c>
     </row>
     <row r="3">
@@ -4389,34 +4389,34 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928754</v>
+        <v>1049.152557292955</v>
       </c>
       <c r="N3" t="n">
         <v>1590.326047362088</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.6898028207301</v>
+        <v>665.041308222335</v>
       </c>
       <c r="C4" t="n">
-        <v>198.6898028207301</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>198.6898028207301</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>919.7257964282219</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353225</v>
+        <v>919.7257964282219</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473381</v>
+        <v>665.041308222335</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103775</v>
+        <v>665.041308222335</v>
       </c>
       <c r="X4" t="n">
-        <v>477.9640241103775</v>
+        <v>665.041308222335</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1714449668474</v>
+        <v>665.041308222335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1633.218371450951</v>
+        <v>1136.517429052843</v>
       </c>
       <c r="C5" t="n">
-        <v>1264.25585451054</v>
+        <v>1136.517429052843</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.25585451054</v>
+        <v>778.251730446093</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4565,22 +4565,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2337.747017055602</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2006.684129712031</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>2006.684129712031</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X5" t="n">
-        <v>1633.218371450951</v>
+        <v>1523.117269116965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1633.218371450951</v>
+        <v>1523.117269116965</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,25 +4647,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552863</v>
+        <v>437.9844898735118</v>
       </c>
       <c r="L6" t="n">
-        <v>985.909405971601</v>
+        <v>1079.007699493406</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463926</v>
+        <v>1445.313588985731</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.5535375052</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1866148981483</v>
+        <v>305.993511610141</v>
       </c>
       <c r="C7" t="n">
-        <v>495.2504319702414</v>
+        <v>305.993511610141</v>
       </c>
       <c r="D7" t="n">
-        <v>495.2504319702414</v>
+        <v>305.993511610141</v>
       </c>
       <c r="E7" t="n">
-        <v>347.3373383878483</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1450.534004159847</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.534004159847</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.534004159847</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.116834122886</v>
+        <v>487.6419764403807</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.627658871918</v>
+        <v>487.6419764403807</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.835079728388</v>
+        <v>487.6419764403807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.655413419054</v>
+        <v>1552.641580414907</v>
       </c>
       <c r="C8" t="n">
-        <v>832.6928964786418</v>
+        <v>1183.679063474496</v>
       </c>
       <c r="D8" t="n">
-        <v>474.4271978718913</v>
+        <v>1183.679063474496</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>797.8908108762514</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>386.9049060866438</v>
       </c>
       <c r="G8" t="n">
         <v>51.79985532281972</v>
@@ -4802,22 +4802,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609791</v>
+        <v>1552.641580414907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.61902063398</v>
+        <v>1552.641580414907</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>942.9699568457229</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.9164947351555</v>
+        <v>625.0463339503837</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351555</v>
+        <v>456.1101510224768</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U10" t="n">
-        <v>1148.459196951773</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="V10" t="n">
-        <v>893.7747087458858</v>
+        <v>1169.364607489973</v>
       </c>
       <c r="W10" t="n">
-        <v>604.3575387089253</v>
+        <v>1169.364607489973</v>
       </c>
       <c r="X10" t="n">
-        <v>604.3575387089253</v>
+        <v>941.3750565919554</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5649595653952</v>
+        <v>720.5824774484253</v>
       </c>
     </row>
     <row r="11">
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556945</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E16" t="n">
-        <v>417.7969033733013</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>417.7969033733013</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6315,7 +6315,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
         <v>261.0127623330919</v>
@@ -6373,13 +6373,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,7 +6552,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,31 +7348,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>151.6735093079758</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>65.99703727571909</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>248.7601900310588</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>258.4238582179796</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>11.32082591987697</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>119.3759750973113</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>162.7491560325408</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-3.282327221323107e-14</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>130.752414374322</v>
       </c>
       <c r="C2" t="n">
-        <v>181.2004772539627</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>166.1419925055158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.43391711369344</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>35.0528242000459</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>49.43558426092557</v>
       </c>
       <c r="C13" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.34424953498211</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>105.2672314396024</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.36835372228709</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380012</v>
@@ -26329,7 +26329,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26338,13 +26338,13 @@
         <v>161429.3199380013</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26366,13 +26366,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802232</v>
+        <v>77576.42687802234</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695041</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.3397947885</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
+        <v>14278.33979478851</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478852</v>
       </c>
-      <c r="O4" t="n">
-        <v>14278.33979478854</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-971202.7249349543</v>
+        <v>-971562.8079506719</v>
       </c>
       <c r="C6" t="n">
-        <v>-231103.8499037931</v>
+        <v>-231103.8499037932</v>
       </c>
       <c r="D6" t="n">
-        <v>-58339.49011390089</v>
+        <v>-58339.49011390077</v>
       </c>
       <c r="E6" t="n">
-        <v>-446869.5581633518</v>
+        <v>-446904.2960887873</v>
       </c>
       <c r="F6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696347</v>
       </c>
       <c r="G6" t="n">
-        <v>54019.30958239904</v>
+        <v>53984.57165696335</v>
       </c>
       <c r="H6" t="n">
-        <v>54019.3095823989</v>
+        <v>53984.57165696341</v>
       </c>
       <c r="I6" t="n">
-        <v>54019.30958239904</v>
+        <v>53984.57165696338</v>
       </c>
       <c r="J6" t="n">
-        <v>-115394.7072436489</v>
+        <v>-115429.4451690846</v>
       </c>
       <c r="K6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696338</v>
       </c>
       <c r="L6" t="n">
-        <v>27338.18033052101</v>
+        <v>27338.18033052109</v>
       </c>
       <c r="M6" t="n">
-        <v>-84118.55858008252</v>
+        <v>-84118.55858008261</v>
       </c>
       <c r="N6" t="n">
-        <v>46765.8983241528</v>
+        <v>46765.89832415283</v>
       </c>
       <c r="O6" t="n">
-        <v>46765.8983241528</v>
+        <v>46765.89832415286</v>
       </c>
       <c r="P6" t="n">
         <v>46765.89832415286</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>184.0724145170448</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>246.1457461895284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.9351544572812</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27585,25 +27585,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>207.879050128406</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>243.3030778394904</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>193.429510771836</v>
       </c>
       <c r="X7" t="n">
-        <v>132.1653718905791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.4898705207036</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>79.77102312568348</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>85.2511981188761</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>114.4927480836044</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>595.3857163736978</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>361.1081696176612</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34702,10 +34702,10 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>450.7346876489889</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692782</v>
@@ -34714,7 +34714,7 @@
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>268.3246405980457</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185461</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
         <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>515.3657774002384</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>546.6398889587201</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812715</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>199.8677849130212</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>371.3726699104615</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>532.7551050146878</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>453.2516824516795</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
